--- a/biorefineries/HP/analyses/full/parameter_distributions/scenarios_key.xlsx
+++ b/biorefineries/HP/analyses/full/parameter_distributions/scenarios_key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\Spring 2020\BioSTEAM\Bioindustrial-Park\biorefineries\TAL\analyses\full\parameter_distributions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\repository_clones\Bioindustrial-Park\biorefineries\HP\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0A6B25-9014-4D43-9AE7-21518ADC1DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7980AAC4-FB84-42EB-A9A3-F6C8553841AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Product</t>
   </si>
@@ -47,90 +47,40 @@
     <t>Scenario Description</t>
   </si>
   <si>
-    <t>TAL</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Current state-of-technology as an </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>th plant.</t>
-    </r>
-  </si>
-  <si>
-    <t>C + sodium hydroxide addition before heating during deparation (maintaining a pH of 11) and mitigating TAL ring-opening decarboxylation conversion (to 5 mol%).</t>
-  </si>
-  <si>
     <t>To Load</t>
   </si>
   <si>
-    <t>Sorbate</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>B + Improvements to biorefinery operating days (to 240 d/y) and production capacity (to 17,869 metric ton/y of TAL) by integrating 208,000 metric ton/y of sweet sorghum.</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>A + Improvements to fermentation yield (to 73% theoretical) and titer (to 65 g/L).</t>
-  </si>
-  <si>
-    <t>B + Improvements to biorefinery operating days (to 240 d/y) by integrating sweet sorghum processing while maintaining production capacity (at 15,944 metric ton/y).</t>
-  </si>
-  <si>
-    <t>C + Base (sodium hydroxide) addition before heating during deparation (maintaining a pH of 11) and mitigating TAL ring-opening decarboxylation conversion (to 4.8 mol%).</t>
-  </si>
-  <si>
-    <t>B + Improvements to HMP etherification &amp; hydrolysis (dehydration) conversion (to 96.9 mol%) and reaction times for etherification &amp; hydrolysis (dehydration; to 6.1 h) and ring-opening &amp; hydrolysis (to 6.1 h).</t>
-  </si>
-  <si>
-    <t>C + Improvements to HMP etherification &amp; hydrolysis (dehydration) conversion (to 96.9 mol%) and reaction times for etherification &amp; hydrolysis (dehydration; to 6.1 h) and ring-opening &amp; hydrolysis (to 6.1 h).</t>
-  </si>
-  <si>
-    <t>D + Improvements to HMP etherification &amp; hydrolysis (dehydration) conversion (to 96.9 mol%) and reaction times for etherification &amp; hydrolysis (dehydration; to 6.1 h) and ring-opening &amp; hydrolysis (to 6.1 h).</t>
-  </si>
-  <si>
-    <t>A + Improvements to HMP etherification &amp; hydrolysis (dehydration) conversion (to 96.9 mol%) and reaction times for etherification &amp; hydrolysis (dehydration; to 6.1 h) and ring-opening &amp; hydrolysis (to 6.1 h).</t>
+    <t>Acrylic</t>
+  </si>
+  <si>
+    <t>HP-salt</t>
+  </si>
+  <si>
+    <t>DASbox</t>
+  </si>
+  <si>
+    <t>10L</t>
+  </si>
+  <si>
+    <t>300L</t>
+  </si>
+  <si>
+    <t>Performance assumptions based on experimental results for a 100-mL DASbox reactor. Separation to 30 wt% 3-HP based on experimental results. Catalytic upgrading to acrylic acid based on literature-reported experimental results.</t>
+  </si>
+  <si>
+    <t>Performance assumptions based on experimental results for a 10-L bioreactor. Separation to 30 wt% 3-HP based on experimental results. Catalytic upgrading to acrylic acid based on literature-reported experimental results.</t>
+  </si>
+  <si>
+    <t>Performance assumptions based on experimental results for a 300-L bioreactor. Separation to 30 wt% 3-HP based on experimental results. Catalytic upgrading to acrylic acid based on literature-reported experimental results.</t>
+  </si>
+  <si>
+    <t>Performance assumptions based on experimental results for a 100-mL DASbox reactor. Separation and recovery of sodium 3-hydroxypropionate based on experimental results.</t>
+  </si>
+  <si>
+    <t>Performance assumptions based on experimental results for a 10-L bioreactor. Separation and recovery of sodium 3-hydroxypropionate based on experimental results.</t>
+  </si>
+  <si>
+    <t>Performance assumptions based on experimental results for a 300-L bioreactor. Separation and recovery of sodium 3-hydroxypropionate based on experimental results.</t>
   </si>
 </sst>
 </file>
@@ -173,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -224,51 +174,16 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -276,29 +191,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,24 +494,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="58.109375" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="40.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="3" max="3" width="72.7265625" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" customWidth="1"/>
+    <col min="11" max="11" width="19.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -608,159 +523,106 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="10"/>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="10"/>
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="3" t="s">
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="11"/>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="11"/>
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J19" s="5"/>
-    </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E25" s="6"/>
-    </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="I28" s="6"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J12" s="4"/>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E18" s="5"/>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="I21" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A13"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="E2:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/biorefineries/HP/analyses/full/parameter_distributions/scenarios_key.xlsx
+++ b/biorefineries/HP/analyses/full/parameter_distributions/scenarios_key.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\repository_clones\Bioindustrial-Park\biorefineries\HP\analyses\full\parameter_distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7980AAC4-FB84-42EB-A9A3-F6C8553841AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477B3DA6-EA2F-40AA-BDF3-DF9C9D3AF57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,19 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Scenario Identifier</t>
-  </si>
-  <si>
-    <t>Scenario Description</t>
-  </si>
-  <si>
-    <t>To Load</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Acrylic</t>
   </si>
@@ -59,28 +47,273 @@
     <t>DASbox</t>
   </si>
   <si>
-    <t>10L</t>
-  </si>
-  <si>
-    <t>300L</t>
-  </si>
-  <si>
-    <t>Performance assumptions based on experimental results for a 100-mL DASbox reactor. Separation to 30 wt% 3-HP based on experimental results. Catalytic upgrading to acrylic acid based on literature-reported experimental results.</t>
-  </si>
-  <si>
-    <t>Performance assumptions based on experimental results for a 10-L bioreactor. Separation to 30 wt% 3-HP based on experimental results. Catalytic upgrading to acrylic acid based on literature-reported experimental results.</t>
-  </si>
-  <si>
-    <t>Performance assumptions based on experimental results for a 300-L bioreactor. Separation to 30 wt% 3-HP based on experimental results. Catalytic upgrading to acrylic acid based on literature-reported experimental results.</t>
-  </si>
-  <si>
-    <t>Performance assumptions based on experimental results for a 100-mL DASbox reactor. Separation and recovery of sodium 3-hydroxypropionate based on experimental results.</t>
-  </si>
-  <si>
-    <t>Performance assumptions based on experimental results for a 10-L bioreactor. Separation and recovery of sodium 3-hydroxypropionate based on experimental results.</t>
-  </si>
-  <si>
-    <t>Performance assumptions based on experimental results for a 300-L bioreactor. Separation and recovery of sodium 3-hydroxypropionate based on experimental results.</t>
+    <t>parameter distributions filename format:</t>
+  </si>
+  <si>
+    <r>
+      <t>f'parameter-distributions_{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>feedstock_tag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}_{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>product_tag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}_{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fermentation_performance_tag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}.xlsx'</t>
+    </r>
+  </si>
+  <si>
+    <t>Separation to 30 wt% 3-HP based on experimental results. Catalytic upgrading to acrylic acid based on literature-reported experimental results.</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <r>
+      <t>product_tag</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(case-sensitive)</t>
+    </r>
+  </si>
+  <si>
+    <t>Separation and recovery of sodium 3-hydroxypropionate based on experimental results. No catalytic upgrading to acrylic acid.</t>
+  </si>
+  <si>
+    <r>
+      <t>feedstock_tag</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(case-sensitive)</t>
+    </r>
+  </si>
+  <si>
+    <t>corn</t>
+  </si>
+  <si>
+    <t>glucose</t>
+  </si>
+  <si>
+    <t>sugarcane</t>
+  </si>
+  <si>
+    <t>cornstover</t>
+  </si>
+  <si>
+    <t>Dextrose monohydrate (90.9 wt% glucose) as a feedstock, purchased from a co-located dry grind facility.</t>
+  </si>
+  <si>
+    <t>Corn as a feedstock, with an on-site dry grind process. Saccharified slurry used as fermentation medium (main sugar substrate: glucose).</t>
+  </si>
+  <si>
+    <t>Corn stover as a feedstock, with on-site dilute acid pretreamtent and enzymatic saccharification. Saccharified slurry used as fermentation medium (main sugar substrates: glucose, xylose).</t>
+  </si>
+  <si>
+    <t>Sugarcane as a feedstock, with on-site clarification and juicing. Juice used as fermentation medium (main sugar substrates: sucrose, glucose, fructose).</t>
+  </si>
+  <si>
+    <r>
+      <t>fermentation_performance_tag</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(case-sensitive)</t>
+    </r>
+  </si>
+  <si>
+    <t>10-L</t>
+  </si>
+  <si>
+    <t>300-L</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fermentation using </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Issatchenkia orientalis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, with design and performance assumptions based on experimental performance achieved in a 100-mL DASbox. Default: low-pH (pH maintained at 4); can switch to neutral (enough base added to neutralize produced organic acids).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fermentation using </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Issatchenkia orientalis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, with design and performance assumptions based on experimental performance achieved in a 10-L bioreactor. Default: low-pH (pH maintained at 4); can switch to neutral (enough base added to neutralize produced organic acids).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fermentation using </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Issatchenkia orientalis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, with design and performance assumptions based on experimental performance achieved in a 300-L bioreactor. Default: low-pH (pH maintained at 4); can switch to neutral (enough base added to neutralize produced organic acids).</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -90,7 +323,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +347,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -123,7 +365,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -163,17 +405,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -183,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -196,23 +427,26 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,136 +728,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.81640625" customWidth="1"/>
-    <col min="2" max="2" width="20.6328125" customWidth="1"/>
-    <col min="3" max="3" width="72.7265625" customWidth="1"/>
-    <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
-    <col min="10" max="10" width="10.6328125" customWidth="1"/>
-    <col min="11" max="11" width="19.08984375" customWidth="1"/>
+    <col min="1" max="1" width="44.26953125" customWidth="1"/>
+    <col min="2" max="2" width="93.26953125" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" customWidth="1"/>
+    <col min="9" max="9" width="19.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    </row>
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8" t="s">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="8" t="s">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
-      <c r="B6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-      <c r="B7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="J12" s="4"/>
-    </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E18" s="5"/>
-    </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="I21" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="E2:E7"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
